--- a/EOBReceiveFeesFromCigna/faillist_new.xlsx
+++ b/EOBReceiveFeesFromCigna/faillist_new.xlsx
@@ -11,6 +11,74 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>Cigna</t>
+  </si>
+  <si>
+    <t>NIKA</t>
+  </si>
+  <si>
+    <t>ELIVERTA</t>
+  </si>
+  <si>
+    <t>03/01/2024</t>
+  </si>
+  <si>
+    <t>65.03</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>03/08/2024</t>
+  </si>
+  <si>
+    <t>02/23/2024</t>
+  </si>
+  <si>
+    <t>03/18/2024</t>
+  </si>
+  <si>
+    <t>66.12</t>
+  </si>
+  <si>
+    <t>03/27/2024</t>
+  </si>
+  <si>
+    <t>02/28/2024</t>
+  </si>
+  <si>
+    <t>04/01/2024</t>
+  </si>
+  <si>
+    <t>02/21/2024</t>
+  </si>
+  <si>
+    <t>04/08/2024</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>03/13/2024</t>
+  </si>
+  <si>
+    <t>03/15/2024</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +408,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>